--- a/biology/Zoologie/Barbican_à_tête_blanche/Barbican_à_tête_blanche.xlsx
+++ b/biology/Zoologie/Barbican_à_tête_blanche/Barbican_à_tête_blanche.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Barbican_%C3%A0_t%C3%AAte_blanche</t>
+          <t>Barbican_à_tête_blanche</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lybius leucocephalus
 Le Barbican à tête blanche (Lybius leucocephalus) est une espèce d'oiseaux de la famille des Lybiidae, dont l'aire de répartition s'étend sur le Nigeria, le Cameroun, la République centrafricaine, le Tchad, le Soudan, l'Ouganda, le Kenya, la Tanzanie, la République démocratique du Congo et l'Angola.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Barbican_%C3%A0_t%C3%AAte_blanche</t>
+          <t>Barbican_à_tête_blanche</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Lybius leucocephalus adamauae Reichenow, 1921
 Lybius leucocephalus albicauda (Shelley, 1881)
